--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000003</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中海可转换债券 - A</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000004</t>
+          <t>000003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海可转换债券 - C</t>
+          <t>中海可转换债券 - A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>20.28</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>000004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>中海可转换债券 - C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.99</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>99.23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.02</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>28.44</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1276,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1292,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1308,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1371,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -1292,14 +1387,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="5">
@@ -1308,14 +1403,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="6">
@@ -1324,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.43</v>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1403,14 +1490,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -1419,14 +1628,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.36</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -600,6 +617,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3628</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,100 +1213,6 @@
       </c>
       <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -968,22 +1287,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>98.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -996,6 +1315,100 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/601108-财通证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -616,7 +633,649 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海可转换债券 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中海可转换债券 - C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1012,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1213,100 +1872,6 @@
       </c>
       <c r="H5" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1381,22 +1946,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>98.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0815</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1409,6 +1974,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1616,7 +2275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1748,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1916,174 +2575,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2510</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海可转换债券 - A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0786</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000004</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中海可转换债券 - C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>